--- a/ReportsAndDocuments/gantt chart.xlsx
+++ b/ReportsAndDocuments/gantt chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Downloads\Dev2\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3011D96D-F215-4A94-ADF3-69E3E47E0312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74078B2-9E8D-4960-9D13-2E4AC9BD40E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Activity</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>Final Report and Implementation</t>
+  </si>
+  <si>
+    <t>Interview with vendor</t>
+  </si>
+  <si>
+    <t>progress report 2</t>
+  </si>
+  <si>
+    <t>progress report 3</t>
+  </si>
+  <si>
+    <t>progress report 4</t>
+  </si>
+  <si>
+    <t>progress report 5</t>
   </si>
 </sst>
 </file>
@@ -170,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -180,6 +195,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G6:T16"/>
+  <dimension ref="G6:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,45 +570,45 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="7:20" ht="30" customHeight="1" thickBot="1">
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="7:20" ht="30" customHeight="1" thickBot="1">
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -592,18 +616,18 @@
     </row>
     <row r="12" spans="7:20" ht="30" customHeight="1" thickBot="1">
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -617,54 +641,54 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="7:20" ht="30" customHeight="1" thickBot="1">
       <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="7:20" ht="30" customHeight="1" thickBot="1">
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" spans="7:20" ht="30" customHeight="1" thickBot="1">
       <c r="G16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -673,12 +697,102 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="7:20" ht="30" customHeight="1" thickBot="1">
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="7:20" ht="30" customHeight="1" thickBot="1">
+      <c r="G18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="7:20" ht="30" customHeight="1" thickBot="1">
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="7:20" ht="30" customHeight="1" thickBot="1">
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="7:20" ht="30" customHeight="1" thickBot="1">
+      <c r="G21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReportsAndDocuments/gantt chart.xlsx
+++ b/ReportsAndDocuments/gantt chart.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Downloads\Dev2\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74078B2-9E8D-4960-9D13-2E4AC9BD40E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269DD1C7-E150-402B-B909-20D652468AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Activity</t>
   </si>
@@ -112,6 +113,24 @@
   </si>
   <si>
     <t>progress report 5</t>
+  </si>
+  <si>
+    <t>Dispatch module implementation</t>
+  </si>
+  <si>
+    <t>Forecasting logic improvement</t>
+  </si>
+  <si>
+    <t>Integration testing</t>
+  </si>
+  <si>
+    <t>UI/UX polish</t>
+  </si>
+  <si>
+    <t>Bug fixing &amp; performance tuning</t>
+  </si>
+  <si>
+    <t>Research analysis &amp; evaluation</t>
   </si>
 </sst>
 </file>
@@ -158,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -181,11 +200,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF484848"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF484848"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF484848"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -204,6 +236,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,12 +522,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G6:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="40.42578125" customWidth="1"/>
     <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -798,4 +834,274 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC8E98B-99C7-4201-8539-C87FCF93C733}">
+  <dimension ref="G6:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="40.42578125" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="7:15" ht="15.75" thickBot="1"/>
+    <row r="7" spans="7:15" ht="33.75" thickBot="1">
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="7:15" ht="17.25" thickBot="1">
+      <c r="G24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ReportsAndDocuments/gantt chart.xlsx
+++ b/ReportsAndDocuments/gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Downloads\Dev2\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269DD1C7-E150-402B-B909-20D652468AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70833A2C-0EDF-43AF-8350-0C0D5426F528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -841,7 +841,7 @@
   <dimension ref="G6:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
